--- a/data/trans_bre/Predimed_R3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/Predimed_R3-Edad-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>6.82298515117719</v>
+        <v>6.822985151177186</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>1.046476954520952</v>
+        <v>1.046476954520951</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.2968713857771905</v>
+        <v>-0.09280781529114872</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.07321391727633136</v>
+        <v>-0.1008272327759014</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.43511013335734</v>
+        <v>13.7777735534575</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3.322430659541496</v>
+        <v>4.063729003801591</v>
       </c>
     </row>
     <row r="7">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-6.576564512227907</v>
+        <v>-6.601501169345752</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3278357107767284</v>
+        <v>-0.3320764274991143</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2810077335035</v>
+        <v>5.294603706938717</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4356450000334635</v>
+        <v>0.4234900389275321</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-0.5252507852046312</v>
+        <v>-0.525250785204634</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>-0.02884506384410655</v>
+        <v>-0.0288450638441067</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.785486048275057</v>
+        <v>-5.140102175100695</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.2337189960619377</v>
+        <v>-0.2443720877418518</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.005970162817556</v>
+        <v>3.245818702404065</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.2642823921425924</v>
+        <v>0.208798686601166</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>3.212513574433287</v>
+        <v>3.21251357443329</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.1828244033548929</v>
+        <v>0.1828244033548931</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.7304329557392795</v>
+        <v>-0.7890194047677814</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.0381435880882359</v>
+        <v>-0.04119922425095031</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.292267986879107</v>
+        <v>6.8976334125593</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4723156153257022</v>
+        <v>0.4600942227025678</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.5750327637260799</v>
+        <v>0.5750327637260827</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.02991392661275125</v>
+        <v>0.02991392661275141</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.643898102177645</v>
+        <v>-3.489778821261279</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.164782175138048</v>
+        <v>-0.1568812433186278</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.576454029123608</v>
+        <v>4.46597766321401</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.276780112983354</v>
+        <v>0.2653354978101268</v>
       </c>
     </row>
     <row r="19">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-6.20986988405022</v>
+        <v>-5.478358685790754</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2115805252611872</v>
+        <v>-0.1891540543376736</v>
       </c>
     </row>
     <row r="21">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.031893481959278</v>
+        <v>3.997818606354636</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1751807468617461</v>
+        <v>0.179766978086291</v>
       </c>
     </row>
     <row r="22">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.893653195809616</v>
+        <v>-5.6483223161128</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>-0.2665033074042291</v>
+        <v>-0.2685148228164386</v>
       </c>
     </row>
     <row r="24">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.57497271470518</v>
+        <v>3.918735661080988</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.3019691079012406</v>
+        <v>0.2524552685884223</v>
       </c>
     </row>
     <row r="25">
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>1.293834256495024</v>
+        <v>1.293834256495027</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.07342780324593806</v>
+        <v>0.07342780324593824</v>
       </c>
     </row>
     <row r="26">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.6253634411339025</v>
+        <v>-0.4114633293175156</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.03321578820165743</v>
+        <v>-0.02282608537472367</v>
       </c>
     </row>
     <row r="27">
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.217176485056867</v>
+        <v>3.303756664424164</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1944784918620848</v>
+        <v>0.1939441323531935</v>
       </c>
     </row>
     <row r="28">
